--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E38CFB5-5793-48AB-8CF8-88E9CF456C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A50431-1489-4A7F-8CD5-593607114912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A50431-1489-4A7F-8CD5-593607114912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C1399-AC31-4974-B301-335F441F55E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7386,7 +7386,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="B7">
             <v>0</v>
@@ -7397,7 +7397,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>10</v>
+            <v>7</v>
           </cell>
           <cell r="B8">
             <v>1.3565771087560975E-2</v>
@@ -7408,7 +7408,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>12</v>
+            <v>9</v>
           </cell>
           <cell r="B9">
             <v>5.9445099388018112E-2</v>
@@ -7419,7 +7419,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="B10">
             <v>0.39168008852869313</v>
@@ -7430,7 +7430,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>16</v>
+            <v>11</v>
           </cell>
           <cell r="B11">
             <v>7.9025068018676314E-3</v>
@@ -7441,7 +7441,7 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>17</v>
+            <v>12</v>
           </cell>
           <cell r="B12">
             <v>6.2781193437761534E-2</v>
@@ -7452,7 +7452,7 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>18</v>
+            <v>13</v>
           </cell>
           <cell r="B13">
             <v>1.3886838133800145E-2</v>
@@ -7463,7 +7463,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>20</v>
+            <v>14</v>
           </cell>
           <cell r="B14">
             <v>1.801632708395447E-3</v>
@@ -7474,7 +7474,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>21</v>
+            <v>15</v>
           </cell>
           <cell r="B15">
             <v>5.9453045854882735E-3</v>
@@ -7485,7 +7485,7 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>26</v>
+            <v>16</v>
           </cell>
           <cell r="B16">
             <v>1.5011292580318431E-2</v>
@@ -7496,7 +7496,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>30</v>
+            <v>17</v>
           </cell>
           <cell r="B17">
             <v>4.2779121279383707E-2</v>
@@ -7507,7 +7507,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>35</v>
+            <v>18</v>
           </cell>
           <cell r="B18">
             <v>2.1540632305673376E-2</v>
@@ -7518,7 +7518,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>36</v>
+            <v>19</v>
           </cell>
           <cell r="B19">
             <v>3.7902378921801788E-2</v>
@@ -7529,7 +7529,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>42</v>
+            <v>20</v>
           </cell>
           <cell r="B20">
             <v>2.1283133829058957E-4</v>
@@ -7540,7 +7540,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55</v>
+            <v>21</v>
           </cell>
           <cell r="B21">
             <v>3.0198037780587009E-2</v>
@@ -7551,7 +7551,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>68</v>
+            <v>22</v>
           </cell>
           <cell r="B22">
             <v>7.5973034397348611E-3</v>
@@ -7562,7 +7562,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>72</v>
+            <v>23</v>
           </cell>
           <cell r="B23">
             <v>9.9358441668064533E-3</v>
@@ -7573,7 +7573,7 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>103</v>
+            <v>24</v>
           </cell>
           <cell r="B24">
             <v>3.8890268008416412E-2</v>
@@ -16691,7 +16691,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19207,7 +19207,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21722,7 +21722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6441301A-5915-4BAC-92A4-314B58338C98}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -24159,7 +24161,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32633,7 +32635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F108A6CA-BBFD-4F40-B9B3-6071F697C889}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -35148,7 +35152,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37663,7 +37667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF74DB5-EFCC-433E-A956-0EF0B90EABA6}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -40100,7 +40106,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C1399-AC31-4974-B301-335F441F55E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBC835-07DB-4003-B849-4451C10D35E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23625" yWindow="4590" windowWidth="21600" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="Qc, Summer, S1" sheetId="7" r:id="rId12"/>
     <sheet name="UpFlex, Summer" sheetId="10" r:id="rId13"/>
     <sheet name="DownFlex, Summer" sheetId="11" r:id="rId14"/>
-    <sheet name="Pg, Summer, S1" sheetId="16" r:id="rId15"/>
-    <sheet name="Qg, Summer, S1" sheetId="17" r:id="rId16"/>
+    <sheet name="Pg, Summer, S1" sheetId="19" r:id="rId15"/>
+    <sheet name="Qg, Summer, S1" sheetId="20" r:id="rId16"/>
     <sheet name="GenStatus, Summer" sheetId="18" r:id="rId17"/>
   </sheets>
   <externalReferences>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>numScenarios</t>
   </si>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -138,13 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +188,8 @@
       <sheetName val="DownFlex, Winter"/>
       <sheetName val="UpFlex, Summer"/>
       <sheetName val="DownFlex, Summer"/>
+      <sheetName val="Profiles, RES, Winter"/>
+      <sheetName val="Profiles, RES, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -14396,6 +14406,1046 @@
           </cell>
           <cell r="Y24">
             <v>3.9828304502441916</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>1</v>
+          </cell>
+          <cell r="D1">
+            <v>2</v>
+          </cell>
+          <cell r="E1">
+            <v>3</v>
+          </cell>
+          <cell r="F1">
+            <v>4</v>
+          </cell>
+          <cell r="G1">
+            <v>5</v>
+          </cell>
+          <cell r="H1">
+            <v>6</v>
+          </cell>
+          <cell r="I1">
+            <v>7</v>
+          </cell>
+          <cell r="J1">
+            <v>8</v>
+          </cell>
+          <cell r="K1">
+            <v>9</v>
+          </cell>
+          <cell r="L1">
+            <v>10</v>
+          </cell>
+          <cell r="M1">
+            <v>11</v>
+          </cell>
+          <cell r="N1">
+            <v>12</v>
+          </cell>
+          <cell r="O1">
+            <v>13</v>
+          </cell>
+          <cell r="P1">
+            <v>14</v>
+          </cell>
+          <cell r="Q1">
+            <v>15</v>
+          </cell>
+          <cell r="R1">
+            <v>16</v>
+          </cell>
+          <cell r="S1">
+            <v>17</v>
+          </cell>
+          <cell r="T1">
+            <v>18</v>
+          </cell>
+          <cell r="U1">
+            <v>19</v>
+          </cell>
+          <cell r="V1">
+            <v>20</v>
+          </cell>
+          <cell r="W1">
+            <v>21</v>
+          </cell>
+          <cell r="X1">
+            <v>22</v>
+          </cell>
+          <cell r="Y1">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.5680716832769496E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>9.5351558928408135E-3</v>
+          </cell>
+          <cell r="J2">
+            <v>0.18890239553808172</v>
+          </cell>
+          <cell r="K2">
+            <v>0.49290093261406231</v>
+          </cell>
+          <cell r="L2">
+            <v>0.61511611959403845</v>
+          </cell>
+          <cell r="M2">
+            <v>0.68321139252080076</v>
+          </cell>
+          <cell r="N2">
+            <v>0.69588141172167872</v>
+          </cell>
+          <cell r="O2">
+            <v>0.68310322757611763</v>
+          </cell>
+          <cell r="P2">
+            <v>0.58327338392612227</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.38544322026149763</v>
+          </cell>
+          <cell r="R2">
+            <v>9.4168304836792532E-2</v>
+          </cell>
+          <cell r="S2">
+            <v>7.3603364725244585E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>6.3362896589558382E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>4.8482216329889367E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>2.7254098360655734E-5</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>7.6400409836065563E-3</v>
+          </cell>
+          <cell r="J3">
+            <v>0.15037377049180325</v>
+          </cell>
+          <cell r="K3">
+            <v>0.35771721311475413</v>
+          </cell>
+          <cell r="L3">
+            <v>0.48138081967213114</v>
+          </cell>
+          <cell r="M3">
+            <v>0.59039606557377045</v>
+          </cell>
+          <cell r="N3">
+            <v>0.70114180327868847</v>
+          </cell>
+          <cell r="O3">
+            <v>0.585118237704918</v>
+          </cell>
+          <cell r="P3">
+            <v>0.42994487704918033</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.20624983606557376</v>
+          </cell>
+          <cell r="R3">
+            <v>4.3088729508196713E-2</v>
+          </cell>
+          <cell r="S3">
+            <v>2.7540983606557371E-4</v>
+          </cell>
+          <cell r="T3">
+            <v>1.2049180327868852E-4</v>
+          </cell>
+          <cell r="U3">
+            <v>0</v>
+          </cell>
+          <cell r="V3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>0</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>8.260566945077194E-3</v>
+          </cell>
+          <cell r="J4">
+            <v>0.18037822703113135</v>
+          </cell>
+          <cell r="K4">
+            <v>0.41995460010124014</v>
+          </cell>
+          <cell r="L4">
+            <v>0.60561693242217163</v>
+          </cell>
+          <cell r="M4">
+            <v>0.62344801948873685</v>
+          </cell>
+          <cell r="N4">
+            <v>0.59197370918754733</v>
+          </cell>
+          <cell r="O4">
+            <v>0.46347538597823329</v>
+          </cell>
+          <cell r="P4">
+            <v>0.35702126044039478</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.15148949633004302</v>
+          </cell>
+          <cell r="R4">
+            <v>2.6744969627942289E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>4.34067324727917E-5</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
+          <cell r="U4">
+            <v>0</v>
+          </cell>
+          <cell r="V4">
+            <v>0</v>
+          </cell>
+          <cell r="W4">
+            <v>0</v>
+          </cell>
+          <cell r="X4">
+            <v>0</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.51030581831411614</v>
+          </cell>
+          <cell r="C5">
+            <v>0.47159688794358001</v>
+          </cell>
+          <cell r="D5">
+            <v>0.49929862588156276</v>
+          </cell>
+          <cell r="E5">
+            <v>0.49712439829844401</v>
+          </cell>
+          <cell r="F5">
+            <v>0.40928803313556472</v>
+          </cell>
+          <cell r="G5">
+            <v>0.41513847531624321</v>
+          </cell>
+          <cell r="H5">
+            <v>0.41603100861972458</v>
+          </cell>
+          <cell r="I5">
+            <v>0.37360511586253214</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3374075618493228</v>
+          </cell>
+          <cell r="K5">
+            <v>0.2438974588604052</v>
+          </cell>
+          <cell r="L5">
+            <v>0.22495835665509906</v>
+          </cell>
+          <cell r="M5">
+            <v>0.15092354192320609</v>
+          </cell>
+          <cell r="N5">
+            <v>0.12543648550319042</v>
+          </cell>
+          <cell r="O5">
+            <v>0.12010214933393036</v>
+          </cell>
+          <cell r="P5">
+            <v>0.16662064815851338</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.22539904007612219</v>
+          </cell>
+          <cell r="R5">
+            <v>0.2520084238217844</v>
+          </cell>
+          <cell r="S5">
+            <v>0.34610985950968326</v>
+          </cell>
+          <cell r="T5">
+            <v>0.31481428411507889</v>
+          </cell>
+          <cell r="U5">
+            <v>0.29928075674465465</v>
+          </cell>
+          <cell r="V5">
+            <v>0.3948933868801075</v>
+          </cell>
+          <cell r="W5">
+            <v>0.47230664390462329</v>
+          </cell>
+          <cell r="X5">
+            <v>0.4465373894548304</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.63471890742191872</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.69259417117623046</v>
+          </cell>
+          <cell r="C6">
+            <v>0.6090328326015928</v>
+          </cell>
+          <cell r="D6">
+            <v>0.50125130819889707</v>
+          </cell>
+          <cell r="E6">
+            <v>0.43394228609352659</v>
+          </cell>
+          <cell r="F6">
+            <v>0.40456175336940986</v>
+          </cell>
+          <cell r="G6">
+            <v>0.3239669185215438</v>
+          </cell>
+          <cell r="H6">
+            <v>0.31541525423728811</v>
+          </cell>
+          <cell r="I6">
+            <v>0.28596365121502959</v>
+          </cell>
+          <cell r="J6">
+            <v>0.29474081070042879</v>
+          </cell>
+          <cell r="K6">
+            <v>0.3117221002654687</v>
+          </cell>
+          <cell r="L6">
+            <v>0.31201008908515415</v>
+          </cell>
+          <cell r="M6">
+            <v>0.36571953491933834</v>
+          </cell>
+          <cell r="N6">
+            <v>0.3658787395344088</v>
+          </cell>
+          <cell r="O6">
+            <v>0.37095559781498877</v>
+          </cell>
+          <cell r="P6">
+            <v>0.41771980932203395</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.34483183581784771</v>
+          </cell>
+          <cell r="R6">
+            <v>0.35721414896875631</v>
+          </cell>
+          <cell r="S6">
+            <v>0.37824631151725546</v>
+          </cell>
+          <cell r="T6">
+            <v>0.32996304497651618</v>
+          </cell>
+          <cell r="U6">
+            <v>0.3417686210945477</v>
+          </cell>
+          <cell r="V6">
+            <v>0.32027010159281194</v>
+          </cell>
+          <cell r="W6">
+            <v>0.29063794159689604</v>
+          </cell>
+          <cell r="X6">
+            <v>0.29788362773126403</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.32574729426179294</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.63194867814166822</v>
+          </cell>
+          <cell r="C7">
+            <v>0.58734313561287332</v>
+          </cell>
+          <cell r="D7">
+            <v>0.63657748202736475</v>
+          </cell>
+          <cell r="E7">
+            <v>0.70980665567265311</v>
+          </cell>
+          <cell r="F7">
+            <v>0.6071441675899919</v>
+          </cell>
+          <cell r="G7">
+            <v>0.51507889922440664</v>
+          </cell>
+          <cell r="H7">
+            <v>0.37073900383931557</v>
+          </cell>
+          <cell r="I7">
+            <v>0.33002396351361796</v>
+          </cell>
+          <cell r="J7">
+            <v>0.33671102063954234</v>
+          </cell>
+          <cell r="K7">
+            <v>0.32914619031667908</v>
+          </cell>
+          <cell r="L7">
+            <v>0.33296463449199926</v>
+          </cell>
+          <cell r="M7">
+            <v>0.35022095390244529</v>
+          </cell>
+          <cell r="N7">
+            <v>0.32035664407740472</v>
+          </cell>
+          <cell r="O7">
+            <v>0.30871151665850699</v>
+          </cell>
+          <cell r="P7">
+            <v>0.42299595454662575</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.55105587621428009</v>
+          </cell>
+          <cell r="R7">
+            <v>0.56261176531216983</v>
+          </cell>
+          <cell r="S7">
+            <v>0.57277402148986056</v>
+          </cell>
+          <cell r="T7">
+            <v>0.58856852791878178</v>
+          </cell>
+          <cell r="U7">
+            <v>0.62089917931407657</v>
+          </cell>
+          <cell r="V7">
+            <v>0.61238501378546206</v>
+          </cell>
+          <cell r="W7">
+            <v>0.59929859053312373</v>
+          </cell>
+          <cell r="X7">
+            <v>0.57383789198381818</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.52926098327707494</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>1</v>
+          </cell>
+          <cell r="D1">
+            <v>2</v>
+          </cell>
+          <cell r="E1">
+            <v>3</v>
+          </cell>
+          <cell r="F1">
+            <v>4</v>
+          </cell>
+          <cell r="G1">
+            <v>5</v>
+          </cell>
+          <cell r="H1">
+            <v>6</v>
+          </cell>
+          <cell r="I1">
+            <v>7</v>
+          </cell>
+          <cell r="J1">
+            <v>8</v>
+          </cell>
+          <cell r="K1">
+            <v>9</v>
+          </cell>
+          <cell r="L1">
+            <v>10</v>
+          </cell>
+          <cell r="M1">
+            <v>11</v>
+          </cell>
+          <cell r="N1">
+            <v>12</v>
+          </cell>
+          <cell r="O1">
+            <v>13</v>
+          </cell>
+          <cell r="P1">
+            <v>14</v>
+          </cell>
+          <cell r="Q1">
+            <v>15</v>
+          </cell>
+          <cell r="R1">
+            <v>16</v>
+          </cell>
+          <cell r="S1">
+            <v>17</v>
+          </cell>
+          <cell r="T1">
+            <v>18</v>
+          </cell>
+          <cell r="U1">
+            <v>19</v>
+          </cell>
+          <cell r="V1">
+            <v>20</v>
+          </cell>
+          <cell r="W1">
+            <v>21</v>
+          </cell>
+          <cell r="X1">
+            <v>22</v>
+          </cell>
+          <cell r="Y1">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.9757703209289567E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1.1537538630337385E-2</v>
+          </cell>
+          <cell r="J2">
+            <v>0.23990604233336377</v>
+          </cell>
+          <cell r="K2">
+            <v>0.63584220307214034</v>
+          </cell>
+          <cell r="L2">
+            <v>0.79965095547225007</v>
+          </cell>
+          <cell r="M2">
+            <v>0.82668578495016887</v>
+          </cell>
+          <cell r="N2">
+            <v>0.90464583523818232</v>
+          </cell>
+          <cell r="O2">
+            <v>0.88120316357319173</v>
+          </cell>
+          <cell r="P2">
+            <v>0.7407571975861752</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.47409516092164211</v>
+          </cell>
+          <cell r="R2">
+            <v>0.11865206409435858</v>
+          </cell>
+          <cell r="S2">
+            <v>9.274023955380818E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>7.8569991771052395E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>5.8663481759166133E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>3.4612704918032786E-5</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>9.9320532786885234E-3</v>
+          </cell>
+          <cell r="J3">
+            <v>0.19398216393442622</v>
+          </cell>
+          <cell r="K3">
+            <v>0.46145520491803282</v>
+          </cell>
+          <cell r="L3">
+            <v>0.61135364098360656</v>
+          </cell>
+          <cell r="M3">
+            <v>0.76751488524590161</v>
+          </cell>
+          <cell r="N3">
+            <v>0.91148434426229497</v>
+          </cell>
+          <cell r="O3">
+            <v>0.7606537090163934</v>
+          </cell>
+          <cell r="P3">
+            <v>0.52453274999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.26193729180327868</v>
+          </cell>
+          <cell r="R3">
+            <v>5.5153573770491793E-2</v>
+          </cell>
+          <cell r="S3">
+            <v>3.3324590163934416E-4</v>
+          </cell>
+          <cell r="T3">
+            <v>1.47E-4</v>
+          </cell>
+          <cell r="U3">
+            <v>0</v>
+          </cell>
+          <cell r="V3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>0</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>1.024310301189572E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>0.22186521924829156</v>
+          </cell>
+          <cell r="K4">
+            <v>0.52074370412553772</v>
+          </cell>
+          <cell r="L4">
+            <v>0.769133504176158</v>
+          </cell>
+          <cell r="M4">
+            <v>0.80424794514047049</v>
+          </cell>
+          <cell r="N4">
+            <v>0.71036845102505675</v>
+          </cell>
+          <cell r="O4">
+            <v>0.57007472475322696</v>
+          </cell>
+          <cell r="P4">
+            <v>0.45698721336370535</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.1954214502657555</v>
+          </cell>
+          <cell r="R4">
+            <v>3.4501010820045551E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>5.642875221462921E-5</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
+          <cell r="U4">
+            <v>0</v>
+          </cell>
+          <cell r="V4">
+            <v>0</v>
+          </cell>
+          <cell r="W4">
+            <v>0</v>
+          </cell>
+          <cell r="X4">
+            <v>0</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.39293548010186946</v>
+          </cell>
+          <cell r="C5">
+            <v>0.35369766595768504</v>
+          </cell>
+          <cell r="D5">
+            <v>0.36448799689354083</v>
+          </cell>
+          <cell r="E5">
+            <v>0.35792956677487969</v>
+          </cell>
+          <cell r="F5">
+            <v>0.30696602485167351</v>
+          </cell>
+          <cell r="G5">
+            <v>0.29059693272137027</v>
+          </cell>
+          <cell r="H5">
+            <v>0.32034387663718794</v>
+          </cell>
+          <cell r="I5">
+            <v>0.29141199037277504</v>
+          </cell>
+          <cell r="J5">
+            <v>0.23955936891301921</v>
+          </cell>
+          <cell r="K5">
+            <v>0.17316719579088768</v>
+          </cell>
+          <cell r="L5">
+            <v>0.17771710175752825</v>
+          </cell>
+          <cell r="M5">
+            <v>0.11017418560394045</v>
+          </cell>
+          <cell r="N5">
+            <v>9.03142695622971E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>9.6081719467144278E-2</v>
+          </cell>
+          <cell r="P5">
+            <v>0.1282978990820553</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.16228730885480797</v>
+          </cell>
+          <cell r="R5">
+            <v>0.19152640210455615</v>
+          </cell>
+          <cell r="S5">
+            <v>0.26304349322735926</v>
+          </cell>
+          <cell r="T5">
+            <v>0.23925885592745996</v>
+          </cell>
+          <cell r="U5">
+            <v>0.21248933728870478</v>
+          </cell>
+          <cell r="V5">
+            <v>0.31591470950408601</v>
+          </cell>
+          <cell r="W5">
+            <v>0.3400607836113288</v>
+          </cell>
+          <cell r="X5">
+            <v>0.3304376681965745</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.48238636964065829</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.5194456283821729</v>
+          </cell>
+          <cell r="C6">
+            <v>0.42632298282111497</v>
+          </cell>
+          <cell r="D6">
+            <v>0.38596350731315077</v>
+          </cell>
+          <cell r="E6">
+            <v>0.33847498315295077</v>
+          </cell>
+          <cell r="F6">
+            <v>0.30342131502705738</v>
+          </cell>
+          <cell r="G6">
+            <v>0.25917353481723504</v>
+          </cell>
+          <cell r="H6">
+            <v>0.24286974576271184</v>
+          </cell>
+          <cell r="I6">
+            <v>0.22591128445987338</v>
+          </cell>
+          <cell r="J6">
+            <v>0.2122133837043087</v>
+          </cell>
+          <cell r="K6">
+            <v>0.23690879620175623</v>
+          </cell>
+          <cell r="L6">
+            <v>0.22152716325045943</v>
+          </cell>
+          <cell r="M6">
+            <v>0.25600367444353683</v>
+          </cell>
+          <cell r="N6">
+            <v>0.28172662944149479</v>
+          </cell>
+          <cell r="O6">
+            <v>0.27079758640494178</v>
+          </cell>
+          <cell r="P6">
+            <v>0.30911265889830514</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.2724171502960997</v>
+          </cell>
+          <cell r="R6">
+            <v>0.25719418725750454</v>
+          </cell>
+          <cell r="S6">
+            <v>0.2647724180620788</v>
+          </cell>
+          <cell r="T6">
+            <v>0.25407154463191745</v>
+          </cell>
+          <cell r="U6">
+            <v>0.26657952445374722</v>
+          </cell>
+          <cell r="V6">
+            <v>0.24981067924239331</v>
+          </cell>
+          <cell r="W6">
+            <v>0.21216569736573412</v>
+          </cell>
+          <cell r="X6">
+            <v>0.23830690218501122</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.22802310598325504</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.44868356148058447</v>
+          </cell>
+          <cell r="C7">
+            <v>0.41701362628514005</v>
+          </cell>
+          <cell r="D7">
+            <v>0.50289621080161817</v>
+          </cell>
+          <cell r="E7">
+            <v>0.51106079208431021</v>
+          </cell>
+          <cell r="F7">
+            <v>0.45535812569249395</v>
+          </cell>
+          <cell r="G7">
+            <v>0.40176154139503717</v>
+          </cell>
+          <cell r="H7">
+            <v>0.29288381303305927</v>
+          </cell>
+          <cell r="I7">
+            <v>0.25081821227034967</v>
+          </cell>
+          <cell r="J7">
+            <v>0.25926748589244758</v>
+          </cell>
+          <cell r="K7">
+            <v>0.24356818083434251</v>
+          </cell>
+          <cell r="L7">
+            <v>0.2663717075935994</v>
+          </cell>
+          <cell r="M7">
+            <v>0.2766745535829318</v>
+          </cell>
+          <cell r="N7">
+            <v>0.22745321729495735</v>
+          </cell>
+          <cell r="O7">
+            <v>0.24079498299363547</v>
+          </cell>
+          <cell r="P7">
+            <v>0.30878704681903679</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.40227078963642449</v>
+          </cell>
+          <cell r="R7">
+            <v>0.39382823571851888</v>
+          </cell>
+          <cell r="S7">
+            <v>0.42385277590249681</v>
+          </cell>
+          <cell r="T7">
+            <v>0.41199796954314727</v>
+          </cell>
+          <cell r="U7">
+            <v>0.46567438448555742</v>
+          </cell>
+          <cell r="V7">
+            <v>0.47153646061480581</v>
+          </cell>
+          <cell r="W7">
+            <v>0.45546692880517403</v>
+          </cell>
+          <cell r="X7">
+            <v>0.41890166114818728</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.40753095712334769</v>
           </cell>
         </row>
       </sheetData>
@@ -14751,7 +15801,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15912,388 +16962,388 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -16301,76 +17351,76 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -16378,76 +17428,76 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -16455,76 +17505,76 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -16532,76 +17582,76 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -16609,76 +17659,76 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -26595,11 +27645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428146B2-B249-4258-832C-9EC59A763D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A64CB9-8E0B-4A08-8654-5C7D038AF1D1}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27760,387 +28810,461 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="B16" s="7">
+        <f>'[1]Profiles, RES, Summer'!B5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <f>'[1]Profiles, RES, Summer'!C5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>'[1]Profiles, RES, Summer'!D5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <f>'[1]Profiles, RES, Summer'!E5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>'[1]Profiles, RES, Summer'!F5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f>'[1]Profiles, RES, Summer'!G5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>'[1]Profiles, RES, Summer'!H5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>'[1]Profiles, RES, Summer'!I5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>'[1]Profiles, RES, Summer'!J5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>'[1]Profiles, RES, Summer'!K5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f>'[1]Profiles, RES, Summer'!L5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f>'[1]Profiles, RES, Summer'!M5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f>'[1]Profiles, RES, Summer'!N5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f>'[1]Profiles, RES, Summer'!O5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <f>'[1]Profiles, RES, Summer'!P5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>'[1]Profiles, RES, Summer'!Q5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f>'[1]Profiles, RES, Summer'!R5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f>'[1]Profiles, RES, Summer'!S5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f>'[1]Profiles, RES, Summer'!T5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f>'[1]Profiles, RES, Summer'!U5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f>'[1]Profiles, RES, Summer'!V5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f>'[1]Profiles, RES, Summer'!W5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f>'[1]Profiles, RES, Summer'!X5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <f>'[1]Profiles, RES, Summer'!Y5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="B17" s="7">
+        <f>'[1]Profiles, RES, Summer'!B6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <f>'[1]Profiles, RES, Summer'!C6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>'[1]Profiles, RES, Summer'!D6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f>'[1]Profiles, RES, Summer'!E6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>'[1]Profiles, RES, Summer'!F6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f>'[1]Profiles, RES, Summer'!G6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f>'[1]Profiles, RES, Summer'!H6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f>'[1]Profiles, RES, Summer'!I6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>'[1]Profiles, RES, Summer'!J6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f>'[1]Profiles, RES, Summer'!K6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f>'[1]Profiles, RES, Summer'!L6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f>'[1]Profiles, RES, Summer'!M6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f>'[1]Profiles, RES, Summer'!N6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f>'[1]Profiles, RES, Summer'!O6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f>'[1]Profiles, RES, Summer'!P6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>'[1]Profiles, RES, Summer'!Q6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <f>'[1]Profiles, RES, Summer'!R6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <f>'[1]Profiles, RES, Summer'!S6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <f>'[1]Profiles, RES, Summer'!T6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <f>'[1]Profiles, RES, Summer'!U6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <f>'[1]Profiles, RES, Summer'!V6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <f>'[1]Profiles, RES, Summer'!W6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <f>'[1]Profiles, RES, Summer'!X6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <f>'[1]Profiles, RES, Summer'!Y6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="B18" s="7">
+        <f>'[1]Profiles, RES, Summer'!B7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f>'[1]Profiles, RES, Summer'!C7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>'[1]Profiles, RES, Summer'!D7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f>'[1]Profiles, RES, Summer'!E7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>'[1]Profiles, RES, Summer'!F7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>'[1]Profiles, RES, Summer'!G7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f>'[1]Profiles, RES, Summer'!H7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f>'[1]Profiles, RES, Summer'!I7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>'[1]Profiles, RES, Summer'!J7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f>'[1]Profiles, RES, Summer'!K7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f>'[1]Profiles, RES, Summer'!L7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f>'[1]Profiles, RES, Summer'!M7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f>'[1]Profiles, RES, Summer'!N7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f>'[1]Profiles, RES, Summer'!O7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f>'[1]Profiles, RES, Summer'!P7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>'[1]Profiles, RES, Summer'!Q7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f>'[1]Profiles, RES, Summer'!R7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f>'[1]Profiles, RES, Summer'!S7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f>'[1]Profiles, RES, Summer'!T7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f>'[1]Profiles, RES, Summer'!U7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f>'[1]Profiles, RES, Summer'!V7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f>'[1]Profiles, RES, Summer'!W7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f>'[1]Profiles, RES, Summer'!X7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f>'[1]Profiles, RES, Summer'!Y7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="B19" s="7">
+        <f>'[1]Profiles, RES, Summer'!B8*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="B20" s="7">
+        <f>'[1]Profiles, RES, Summer'!B9*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -28149,75 +29273,99 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
+        <f>'[1]Profiles, RES, Summer'!B1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
+        <f>'[1]Profiles, RES, Summer'!C1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
+        <f>'[1]Profiles, RES, Summer'!D1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
+        <f>'[1]Profiles, RES, Summer'!E1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
+        <f>'[1]Profiles, RES, Summer'!F1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
+        <f>'[1]Profiles, RES, Summer'!G1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
+        <f>'[1]Profiles, RES, Summer'!H1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
+        <f>'[1]Profiles, RES, Summer'!I1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
+        <f>'[1]Profiles, RES, Summer'!J1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
+        <f>'[1]Profiles, RES, Summer'!K1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
+        <f>'[1]Profiles, RES, Summer'!L1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
+        <f>'[1]Profiles, RES, Summer'!M1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
+        <f>'[1]Profiles, RES, Summer'!N1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
+        <f>'[1]Profiles, RES, Summer'!O1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
+        <f>'[1]Profiles, RES, Summer'!P1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
+        <f>'[1]Profiles, RES, Summer'!Q1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R21" s="4">
+        <f>'[1]Profiles, RES, Summer'!R1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S21" s="4">
+        <f>'[1]Profiles, RES, Summer'!S1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T21" s="4">
+        <f>'[1]Profiles, RES, Summer'!T1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U21" s="4">
+        <f>'[1]Profiles, RES, Summer'!U1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V21" s="4">
+        <f>'[1]Profiles, RES, Summer'!V1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W21" s="4">
+        <f>'[1]Profiles, RES, Summer'!W1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X21" s="4">
+        <f>'[1]Profiles, RES, Summer'!X1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
+        <f>'[1]Profiles, RES, Summer'!Y1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28226,75 +29374,99 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
+        <f>'[1]Profiles, RES, Summer'!B2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
+        <f>'[1]Profiles, RES, Summer'!C2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D22" s="4">
+        <f>'[1]Profiles, RES, Summer'!D2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
+        <f>'[1]Profiles, RES, Summer'!E2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
+        <f>'[1]Profiles, RES, Summer'!F2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
+        <f>'[1]Profiles, RES, Summer'!G2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
+        <f>'[1]Profiles, RES, Summer'!H2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
+        <f>'[1]Profiles, RES, Summer'!I2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
+        <f>'[1]Profiles, RES, Summer'!J2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
+        <f>'[1]Profiles, RES, Summer'!K2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
+        <f>'[1]Profiles, RES, Summer'!L2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
+        <f>'[1]Profiles, RES, Summer'!M2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
+        <f>'[1]Profiles, RES, Summer'!N2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O22" s="4">
+        <f>'[1]Profiles, RES, Summer'!O2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
+        <f>'[1]Profiles, RES, Summer'!P2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
+        <f>'[1]Profiles, RES, Summer'!Q2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
+        <f>'[1]Profiles, RES, Summer'!R2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
+        <f>'[1]Profiles, RES, Summer'!S2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
+        <f>'[1]Profiles, RES, Summer'!T2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U22" s="4">
+        <f>'[1]Profiles, RES, Summer'!U2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V22" s="4">
+        <f>'[1]Profiles, RES, Summer'!V2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
+        <f>'[1]Profiles, RES, Summer'!W2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
+        <f>'[1]Profiles, RES, Summer'!X2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
+        <f>'[1]Profiles, RES, Summer'!Y2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28303,75 +29475,99 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
+        <f>'[1]Profiles, RES, Summer'!B3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
+        <f>'[1]Profiles, RES, Summer'!C3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D23" s="4">
+        <f>'[1]Profiles, RES, Summer'!D3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
+        <f>'[1]Profiles, RES, Summer'!E3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
+        <f>'[1]Profiles, RES, Summer'!F3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
+        <f>'[1]Profiles, RES, Summer'!G3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
+        <f>'[1]Profiles, RES, Summer'!H3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
+        <f>'[1]Profiles, RES, Summer'!I3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
+        <f>'[1]Profiles, RES, Summer'!J3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="4">
+        <f>'[1]Profiles, RES, Summer'!K3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
+        <f>'[1]Profiles, RES, Summer'!L3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
+        <f>'[1]Profiles, RES, Summer'!M3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
+        <f>'[1]Profiles, RES, Summer'!N3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
+        <f>'[1]Profiles, RES, Summer'!O3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
+        <f>'[1]Profiles, RES, Summer'!P3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="4">
+        <f>'[1]Profiles, RES, Summer'!Q3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="4">
+        <f>'[1]Profiles, RES, Summer'!R3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="4">
+        <f>'[1]Profiles, RES, Summer'!S3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="4">
+        <f>'[1]Profiles, RES, Summer'!T3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="4">
+        <f>'[1]Profiles, RES, Summer'!U3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
+        <f>'[1]Profiles, RES, Summer'!V3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="4">
+        <f>'[1]Profiles, RES, Summer'!W3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="4">
+        <f>'[1]Profiles, RES, Summer'!X3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="4">
+        <f>'[1]Profiles, RES, Summer'!Y3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28380,75 +29576,99 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
+        <f>'[1]Profiles, RES, Summer'!B4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
+        <f>'[1]Profiles, RES, Summer'!C4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D24" s="4">
+        <f>'[1]Profiles, RES, Summer'!D4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
+        <f>'[1]Profiles, RES, Summer'!E4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
+        <f>'[1]Profiles, RES, Summer'!F4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
+        <f>'[1]Profiles, RES, Summer'!G4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
+        <f>'[1]Profiles, RES, Summer'!H4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
+        <f>'[1]Profiles, RES, Summer'!I4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
+        <f>'[1]Profiles, RES, Summer'!J4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K24" s="4">
+        <f>'[1]Profiles, RES, Summer'!K4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
+        <f>'[1]Profiles, RES, Summer'!L4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
+        <f>'[1]Profiles, RES, Summer'!M4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
+        <f>'[1]Profiles, RES, Summer'!N4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
+        <f>'[1]Profiles, RES, Summer'!O4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
+        <f>'[1]Profiles, RES, Summer'!P4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="4">
+        <f>'[1]Profiles, RES, Summer'!Q4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R24" s="4">
+        <f>'[1]Profiles, RES, Summer'!R4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
+        <f>'[1]Profiles, RES, Summer'!S4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T24" s="4">
+        <f>'[1]Profiles, RES, Summer'!T4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U24" s="4">
+        <f>'[1]Profiles, RES, Summer'!U4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V24" s="4">
+        <f>'[1]Profiles, RES, Summer'!V4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
+        <f>'[1]Profiles, RES, Summer'!W4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
+        <f>'[1]Profiles, RES, Summer'!X4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
+        <f>'[1]Profiles, RES, Summer'!Y4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28457,75 +29677,99 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
+        <f>'[1]Profiles, RES, Summer'!B5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
+        <f>'[1]Profiles, RES, Summer'!C5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D25" s="4">
+        <f>'[1]Profiles, RES, Summer'!D5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E25" s="4">
+        <f>'[1]Profiles, RES, Summer'!E5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
+        <f>'[1]Profiles, RES, Summer'!F5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
+        <f>'[1]Profiles, RES, Summer'!G5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
+        <f>'[1]Profiles, RES, Summer'!H5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
+        <f>'[1]Profiles, RES, Summer'!I5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
+        <f>'[1]Profiles, RES, Summer'!J5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
+        <f>'[1]Profiles, RES, Summer'!K5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
+        <f>'[1]Profiles, RES, Summer'!L5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
+        <f>'[1]Profiles, RES, Summer'!M5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
+        <f>'[1]Profiles, RES, Summer'!N5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O25" s="4">
+        <f>'[1]Profiles, RES, Summer'!O5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
+        <f>'[1]Profiles, RES, Summer'!P5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="4">
+        <f>'[1]Profiles, RES, Summer'!Q5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R25" s="4">
+        <f>'[1]Profiles, RES, Summer'!R5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S25" s="4">
+        <f>'[1]Profiles, RES, Summer'!S5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T25" s="4">
+        <f>'[1]Profiles, RES, Summer'!T5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U25" s="4">
+        <f>'[1]Profiles, RES, Summer'!U5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V25" s="4">
+        <f>'[1]Profiles, RES, Summer'!V5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W25" s="4">
+        <f>'[1]Profiles, RES, Summer'!W5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X25" s="4">
+        <f>'[1]Profiles, RES, Summer'!X5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="4">
+        <f>'[1]Profiles, RES, Summer'!Y5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28535,11 +29779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D619362D-1835-4A6C-8232-0B7B739CBBE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B46E855-D8CB-45F8-A3AC-10DA18913005}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29700,387 +30944,387 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -30479,7 +31723,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A16" sqref="A16:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31640,388 +32884,388 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -32029,76 +33273,76 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -32106,76 +33350,76 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -32183,76 +33427,76 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -32260,76 +33504,76 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -32337,76 +33581,76 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32418,8 +33662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF7E2F-C521-4E43-83A3-255291D61BD8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32436,117 +33680,118 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
+      <c r="C9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
+      <c r="C10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
+      <c r="C11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37667,7 +38912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF74DB5-EFCC-433E-A956-0EF0B90EABA6}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -42544,7 +43789,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43705,387 +44950,461 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="B16" s="7">
+        <f>'[1]Profiles, RES, Winter'!B5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <f>'[1]Profiles, RES, Winter'!C5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>'[1]Profiles, RES, Winter'!D5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <f>'[1]Profiles, RES, Winter'!E5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>'[1]Profiles, RES, Winter'!F5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f>'[1]Profiles, RES, Winter'!G5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>'[1]Profiles, RES, Winter'!H5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>'[1]Profiles, RES, Winter'!I5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>'[1]Profiles, RES, Winter'!J5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>'[1]Profiles, RES, Winter'!K5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f>'[1]Profiles, RES, Winter'!L5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f>'[1]Profiles, RES, Winter'!M5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f>'[1]Profiles, RES, Winter'!N5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f>'[1]Profiles, RES, Winter'!O5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <f>'[1]Profiles, RES, Winter'!P5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>'[1]Profiles, RES, Winter'!Q5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f>'[1]Profiles, RES, Winter'!R5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f>'[1]Profiles, RES, Winter'!S5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f>'[1]Profiles, RES, Winter'!T5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f>'[1]Profiles, RES, Winter'!U5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f>'[1]Profiles, RES, Winter'!V5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f>'[1]Profiles, RES, Winter'!W5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f>'[1]Profiles, RES, Winter'!X5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <f>'[1]Profiles, RES, Winter'!Y5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="B17" s="7">
+        <f>'[1]Profiles, RES, Winter'!B6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <f>'[1]Profiles, RES, Winter'!C6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>'[1]Profiles, RES, Winter'!D6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f>'[1]Profiles, RES, Winter'!E6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>'[1]Profiles, RES, Winter'!F6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f>'[1]Profiles, RES, Winter'!G6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f>'[1]Profiles, RES, Winter'!H6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f>'[1]Profiles, RES, Winter'!I6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>'[1]Profiles, RES, Winter'!J6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f>'[1]Profiles, RES, Winter'!K6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f>'[1]Profiles, RES, Winter'!L6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f>'[1]Profiles, RES, Winter'!M6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f>'[1]Profiles, RES, Winter'!N6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f>'[1]Profiles, RES, Winter'!O6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f>'[1]Profiles, RES, Winter'!P6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>'[1]Profiles, RES, Winter'!Q6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <f>'[1]Profiles, RES, Winter'!R6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <f>'[1]Profiles, RES, Winter'!S6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <f>'[1]Profiles, RES, Winter'!T6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <f>'[1]Profiles, RES, Winter'!U6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <f>'[1]Profiles, RES, Winter'!V6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <f>'[1]Profiles, RES, Winter'!W6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <f>'[1]Profiles, RES, Winter'!X6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <f>'[1]Profiles, RES, Winter'!Y6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="B18" s="7">
+        <f>'[1]Profiles, RES, Winter'!B7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f>'[1]Profiles, RES, Winter'!C7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>'[1]Profiles, RES, Winter'!D7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f>'[1]Profiles, RES, Winter'!E7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>'[1]Profiles, RES, Winter'!F7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>'[1]Profiles, RES, Winter'!G7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f>'[1]Profiles, RES, Winter'!H7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f>'[1]Profiles, RES, Winter'!I7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>'[1]Profiles, RES, Winter'!J7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f>'[1]Profiles, RES, Winter'!K7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f>'[1]Profiles, RES, Winter'!L7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f>'[1]Profiles, RES, Winter'!M7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f>'[1]Profiles, RES, Winter'!N7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f>'[1]Profiles, RES, Winter'!O7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f>'[1]Profiles, RES, Winter'!P7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>'[1]Profiles, RES, Winter'!Q7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f>'[1]Profiles, RES, Winter'!R7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f>'[1]Profiles, RES, Winter'!S7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f>'[1]Profiles, RES, Winter'!T7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f>'[1]Profiles, RES, Winter'!U7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f>'[1]Profiles, RES, Winter'!V7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f>'[1]Profiles, RES, Winter'!W7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f>'[1]Profiles, RES, Winter'!X7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f>'[1]Profiles, RES, Winter'!Y7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="B19" s="7">
+        <f>'[1]Profiles, RES, Winter'!B8*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="B20" s="7">
+        <f>'[1]Profiles, RES, Winter'!B9*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -44094,75 +45413,99 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
+        <f>'[1]Profiles, RES, Winter'!B1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
+        <f>'[1]Profiles, RES, Winter'!C1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
+        <f>'[1]Profiles, RES, Winter'!D1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
+        <f>'[1]Profiles, RES, Winter'!E1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
+        <f>'[1]Profiles, RES, Winter'!F1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
+        <f>'[1]Profiles, RES, Winter'!G1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
+        <f>'[1]Profiles, RES, Winter'!H1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
+        <f>'[1]Profiles, RES, Winter'!I1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
+        <f>'[1]Profiles, RES, Winter'!J1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
+        <f>'[1]Profiles, RES, Winter'!K1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
+        <f>'[1]Profiles, RES, Winter'!L1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
+        <f>'[1]Profiles, RES, Winter'!M1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
+        <f>'[1]Profiles, RES, Winter'!N1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
+        <f>'[1]Profiles, RES, Winter'!O1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
+        <f>'[1]Profiles, RES, Winter'!P1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
+        <f>'[1]Profiles, RES, Winter'!Q1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R21" s="4">
+        <f>'[1]Profiles, RES, Winter'!R1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S21" s="4">
+        <f>'[1]Profiles, RES, Winter'!S1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T21" s="4">
+        <f>'[1]Profiles, RES, Winter'!T1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U21" s="4">
+        <f>'[1]Profiles, RES, Winter'!U1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V21" s="4">
+        <f>'[1]Profiles, RES, Winter'!V1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W21" s="4">
+        <f>'[1]Profiles, RES, Winter'!W1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X21" s="4">
+        <f>'[1]Profiles, RES, Winter'!X1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
+        <f>'[1]Profiles, RES, Winter'!Y1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -44171,75 +45514,99 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
+        <f>'[1]Profiles, RES, Winter'!B2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
+        <f>'[1]Profiles, RES, Winter'!C2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D22" s="4">
+        <f>'[1]Profiles, RES, Winter'!D2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
+        <f>'[1]Profiles, RES, Winter'!E2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
+        <f>'[1]Profiles, RES, Winter'!F2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
+        <f>'[1]Profiles, RES, Winter'!G2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
+        <f>'[1]Profiles, RES, Winter'!H2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
+        <f>'[1]Profiles, RES, Winter'!I2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
+        <f>'[1]Profiles, RES, Winter'!J2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
+        <f>'[1]Profiles, RES, Winter'!K2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
+        <f>'[1]Profiles, RES, Winter'!L2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
+        <f>'[1]Profiles, RES, Winter'!M2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
+        <f>'[1]Profiles, RES, Winter'!N2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O22" s="4">
+        <f>'[1]Profiles, RES, Winter'!O2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
+        <f>'[1]Profiles, RES, Winter'!P2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
+        <f>'[1]Profiles, RES, Winter'!Q2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
+        <f>'[1]Profiles, RES, Winter'!R2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
+        <f>'[1]Profiles, RES, Winter'!S2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
+        <f>'[1]Profiles, RES, Winter'!T2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U22" s="4">
+        <f>'[1]Profiles, RES, Winter'!U2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V22" s="4">
+        <f>'[1]Profiles, RES, Winter'!V2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
+        <f>'[1]Profiles, RES, Winter'!W2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
+        <f>'[1]Profiles, RES, Winter'!X2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
+        <f>'[1]Profiles, RES, Winter'!Y2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -44248,75 +45615,99 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
+        <f>'[1]Profiles, RES, Winter'!B3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
+        <f>'[1]Profiles, RES, Winter'!C3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D23" s="4">
+        <f>'[1]Profiles, RES, Winter'!D3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
+        <f>'[1]Profiles, RES, Winter'!E3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
+        <f>'[1]Profiles, RES, Winter'!F3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
+        <f>'[1]Profiles, RES, Winter'!G3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
+        <f>'[1]Profiles, RES, Winter'!H3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
+        <f>'[1]Profiles, RES, Winter'!I3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
+        <f>'[1]Profiles, RES, Winter'!J3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="4">
+        <f>'[1]Profiles, RES, Winter'!K3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
+        <f>'[1]Profiles, RES, Winter'!L3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
+        <f>'[1]Profiles, RES, Winter'!M3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
+        <f>'[1]Profiles, RES, Winter'!N3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
+        <f>'[1]Profiles, RES, Winter'!O3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
+        <f>'[1]Profiles, RES, Winter'!P3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="4">
+        <f>'[1]Profiles, RES, Winter'!Q3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="4">
+        <f>'[1]Profiles, RES, Winter'!R3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="4">
+        <f>'[1]Profiles, RES, Winter'!S3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="4">
+        <f>'[1]Profiles, RES, Winter'!T3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="4">
+        <f>'[1]Profiles, RES, Winter'!U3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
+        <f>'[1]Profiles, RES, Winter'!V3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="4">
+        <f>'[1]Profiles, RES, Winter'!W3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="4">
+        <f>'[1]Profiles, RES, Winter'!X3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="4">
+        <f>'[1]Profiles, RES, Winter'!Y3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -44325,75 +45716,99 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
+        <f>'[1]Profiles, RES, Winter'!B4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
+        <f>'[1]Profiles, RES, Winter'!C4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D24" s="4">
+        <f>'[1]Profiles, RES, Winter'!D4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
+        <f>'[1]Profiles, RES, Winter'!E4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
+        <f>'[1]Profiles, RES, Winter'!F4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
+        <f>'[1]Profiles, RES, Winter'!G4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
+        <f>'[1]Profiles, RES, Winter'!H4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
+        <f>'[1]Profiles, RES, Winter'!I4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
+        <f>'[1]Profiles, RES, Winter'!J4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K24" s="4">
+        <f>'[1]Profiles, RES, Winter'!K4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
+        <f>'[1]Profiles, RES, Winter'!L4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
+        <f>'[1]Profiles, RES, Winter'!M4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
+        <f>'[1]Profiles, RES, Winter'!N4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
+        <f>'[1]Profiles, RES, Winter'!O4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
+        <f>'[1]Profiles, RES, Winter'!P4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="4">
+        <f>'[1]Profiles, RES, Winter'!Q4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R24" s="4">
+        <f>'[1]Profiles, RES, Winter'!R4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
+        <f>'[1]Profiles, RES, Winter'!S4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T24" s="4">
+        <f>'[1]Profiles, RES, Winter'!T4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U24" s="4">
+        <f>'[1]Profiles, RES, Winter'!U4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V24" s="4">
+        <f>'[1]Profiles, RES, Winter'!V4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
+        <f>'[1]Profiles, RES, Winter'!W4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
+        <f>'[1]Profiles, RES, Winter'!X4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
+        <f>'[1]Profiles, RES, Winter'!Y4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -44402,75 +45817,99 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
+        <f>'[1]Profiles, RES, Winter'!B5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
+        <f>'[1]Profiles, RES, Winter'!C5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D25" s="4">
+        <f>'[1]Profiles, RES, Winter'!D5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E25" s="4">
+        <f>'[1]Profiles, RES, Winter'!E5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
+        <f>'[1]Profiles, RES, Winter'!F5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
+        <f>'[1]Profiles, RES, Winter'!G5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
+        <f>'[1]Profiles, RES, Winter'!H5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
+        <f>'[1]Profiles, RES, Winter'!I5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
+        <f>'[1]Profiles, RES, Winter'!J5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
+        <f>'[1]Profiles, RES, Winter'!K5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
+        <f>'[1]Profiles, RES, Winter'!L5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
+        <f>'[1]Profiles, RES, Winter'!M5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
+        <f>'[1]Profiles, RES, Winter'!N5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O25" s="4">
+        <f>'[1]Profiles, RES, Winter'!O5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
+        <f>'[1]Profiles, RES, Winter'!P5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="4">
+        <f>'[1]Profiles, RES, Winter'!Q5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R25" s="4">
+        <f>'[1]Profiles, RES, Winter'!R5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S25" s="4">
+        <f>'[1]Profiles, RES, Winter'!S5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T25" s="4">
+        <f>'[1]Profiles, RES, Winter'!T5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U25" s="4">
+        <f>'[1]Profiles, RES, Winter'!U5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V25" s="4">
+        <f>'[1]Profiles, RES, Winter'!V5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W25" s="4">
+        <f>'[1]Profiles, RES, Winter'!W5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X25" s="4">
+        <f>'[1]Profiles, RES, Winter'!X5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="4">
+        <f>'[1]Profiles, RES, Winter'!Y5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -44484,7 +45923,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45645,387 +47084,387 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBC835-07DB-4003-B849-4451C10D35E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D306F51D-9C16-4437-8F93-5AB7E8B70963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23625" yWindow="4590" windowWidth="21600" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14484,228 +14484,6 @@
             <v>23</v>
           </cell>
         </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>1.5680716832769496E-5</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>9.5351558928408135E-3</v>
-          </cell>
-          <cell r="J2">
-            <v>0.18890239553808172</v>
-          </cell>
-          <cell r="K2">
-            <v>0.49290093261406231</v>
-          </cell>
-          <cell r="L2">
-            <v>0.61511611959403845</v>
-          </cell>
-          <cell r="M2">
-            <v>0.68321139252080076</v>
-          </cell>
-          <cell r="N2">
-            <v>0.69588141172167872</v>
-          </cell>
-          <cell r="O2">
-            <v>0.68310322757611763</v>
-          </cell>
-          <cell r="P2">
-            <v>0.58327338392612227</v>
-          </cell>
-          <cell r="Q2">
-            <v>0.38544322026149763</v>
-          </cell>
-          <cell r="R2">
-            <v>9.4168304836792532E-2</v>
-          </cell>
-          <cell r="S2">
-            <v>7.3603364725244585E-4</v>
-          </cell>
-          <cell r="T2">
-            <v>6.3362896589558382E-5</v>
-          </cell>
-          <cell r="U2">
-            <v>4.8482216329889367E-5</v>
-          </cell>
-          <cell r="V2">
-            <v>0</v>
-          </cell>
-          <cell r="W2">
-            <v>0</v>
-          </cell>
-          <cell r="X2">
-            <v>0</v>
-          </cell>
-          <cell r="Y2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>2.7254098360655734E-5</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>7.6400409836065563E-3</v>
-          </cell>
-          <cell r="J3">
-            <v>0.15037377049180325</v>
-          </cell>
-          <cell r="K3">
-            <v>0.35771721311475413</v>
-          </cell>
-          <cell r="L3">
-            <v>0.48138081967213114</v>
-          </cell>
-          <cell r="M3">
-            <v>0.59039606557377045</v>
-          </cell>
-          <cell r="N3">
-            <v>0.70114180327868847</v>
-          </cell>
-          <cell r="O3">
-            <v>0.585118237704918</v>
-          </cell>
-          <cell r="P3">
-            <v>0.42994487704918033</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.20624983606557376</v>
-          </cell>
-          <cell r="R3">
-            <v>4.3088729508196713E-2</v>
-          </cell>
-          <cell r="S3">
-            <v>2.7540983606557371E-4</v>
-          </cell>
-          <cell r="T3">
-            <v>1.2049180327868852E-4</v>
-          </cell>
-          <cell r="U3">
-            <v>0</v>
-          </cell>
-          <cell r="V3">
-            <v>0</v>
-          </cell>
-          <cell r="W3">
-            <v>0</v>
-          </cell>
-          <cell r="X3">
-            <v>0</v>
-          </cell>
-          <cell r="Y3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>8.260566945077194E-3</v>
-          </cell>
-          <cell r="J4">
-            <v>0.18037822703113135</v>
-          </cell>
-          <cell r="K4">
-            <v>0.41995460010124014</v>
-          </cell>
-          <cell r="L4">
-            <v>0.60561693242217163</v>
-          </cell>
-          <cell r="M4">
-            <v>0.62344801948873685</v>
-          </cell>
-          <cell r="N4">
-            <v>0.59197370918754733</v>
-          </cell>
-          <cell r="O4">
-            <v>0.46347538597823329</v>
-          </cell>
-          <cell r="P4">
-            <v>0.35702126044039478</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.15148949633004302</v>
-          </cell>
-          <cell r="R4">
-            <v>2.6744969627942289E-2</v>
-          </cell>
-          <cell r="S4">
-            <v>4.34067324727917E-5</v>
-          </cell>
-          <cell r="T4">
-            <v>0</v>
-          </cell>
-          <cell r="U4">
-            <v>0</v>
-          </cell>
-          <cell r="V4">
-            <v>0</v>
-          </cell>
-          <cell r="W4">
-            <v>0</v>
-          </cell>
-          <cell r="X4">
-            <v>0</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="B5">
             <v>0.51030581831411614</v>
@@ -14778,154 +14556,6 @@
           </cell>
           <cell r="Y5">
             <v>0.63471890742191872</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.69259417117623046</v>
-          </cell>
-          <cell r="C6">
-            <v>0.6090328326015928</v>
-          </cell>
-          <cell r="D6">
-            <v>0.50125130819889707</v>
-          </cell>
-          <cell r="E6">
-            <v>0.43394228609352659</v>
-          </cell>
-          <cell r="F6">
-            <v>0.40456175336940986</v>
-          </cell>
-          <cell r="G6">
-            <v>0.3239669185215438</v>
-          </cell>
-          <cell r="H6">
-            <v>0.31541525423728811</v>
-          </cell>
-          <cell r="I6">
-            <v>0.28596365121502959</v>
-          </cell>
-          <cell r="J6">
-            <v>0.29474081070042879</v>
-          </cell>
-          <cell r="K6">
-            <v>0.3117221002654687</v>
-          </cell>
-          <cell r="L6">
-            <v>0.31201008908515415</v>
-          </cell>
-          <cell r="M6">
-            <v>0.36571953491933834</v>
-          </cell>
-          <cell r="N6">
-            <v>0.3658787395344088</v>
-          </cell>
-          <cell r="O6">
-            <v>0.37095559781498877</v>
-          </cell>
-          <cell r="P6">
-            <v>0.41771980932203395</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.34483183581784771</v>
-          </cell>
-          <cell r="R6">
-            <v>0.35721414896875631</v>
-          </cell>
-          <cell r="S6">
-            <v>0.37824631151725546</v>
-          </cell>
-          <cell r="T6">
-            <v>0.32996304497651618</v>
-          </cell>
-          <cell r="U6">
-            <v>0.3417686210945477</v>
-          </cell>
-          <cell r="V6">
-            <v>0.32027010159281194</v>
-          </cell>
-          <cell r="W6">
-            <v>0.29063794159689604</v>
-          </cell>
-          <cell r="X6">
-            <v>0.29788362773126403</v>
-          </cell>
-          <cell r="Y6">
-            <v>0.32574729426179294</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.63194867814166822</v>
-          </cell>
-          <cell r="C7">
-            <v>0.58734313561287332</v>
-          </cell>
-          <cell r="D7">
-            <v>0.63657748202736475</v>
-          </cell>
-          <cell r="E7">
-            <v>0.70980665567265311</v>
-          </cell>
-          <cell r="F7">
-            <v>0.6071441675899919</v>
-          </cell>
-          <cell r="G7">
-            <v>0.51507889922440664</v>
-          </cell>
-          <cell r="H7">
-            <v>0.37073900383931557</v>
-          </cell>
-          <cell r="I7">
-            <v>0.33002396351361796</v>
-          </cell>
-          <cell r="J7">
-            <v>0.33671102063954234</v>
-          </cell>
-          <cell r="K7">
-            <v>0.32914619031667908</v>
-          </cell>
-          <cell r="L7">
-            <v>0.33296463449199926</v>
-          </cell>
-          <cell r="M7">
-            <v>0.35022095390244529</v>
-          </cell>
-          <cell r="N7">
-            <v>0.32035664407740472</v>
-          </cell>
-          <cell r="O7">
-            <v>0.30871151665850699</v>
-          </cell>
-          <cell r="P7">
-            <v>0.42299595454662575</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.55105587621428009</v>
-          </cell>
-          <cell r="R7">
-            <v>0.56261176531216983</v>
-          </cell>
-          <cell r="S7">
-            <v>0.57277402148986056</v>
-          </cell>
-          <cell r="T7">
-            <v>0.58856852791878178</v>
-          </cell>
-          <cell r="U7">
-            <v>0.62089917931407657</v>
-          </cell>
-          <cell r="V7">
-            <v>0.61238501378546206</v>
-          </cell>
-          <cell r="W7">
-            <v>0.59929859053312373</v>
-          </cell>
-          <cell r="X7">
-            <v>0.57383789198381818</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.52926098327707494</v>
           </cell>
         </row>
       </sheetData>
@@ -15004,228 +14634,6 @@
             <v>23</v>
           </cell>
         </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>1.9757703209289567E-5</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>1.1537538630337385E-2</v>
-          </cell>
-          <cell r="J2">
-            <v>0.23990604233336377</v>
-          </cell>
-          <cell r="K2">
-            <v>0.63584220307214034</v>
-          </cell>
-          <cell r="L2">
-            <v>0.79965095547225007</v>
-          </cell>
-          <cell r="M2">
-            <v>0.82668578495016887</v>
-          </cell>
-          <cell r="N2">
-            <v>0.90464583523818232</v>
-          </cell>
-          <cell r="O2">
-            <v>0.88120316357319173</v>
-          </cell>
-          <cell r="P2">
-            <v>0.7407571975861752</v>
-          </cell>
-          <cell r="Q2">
-            <v>0.47409516092164211</v>
-          </cell>
-          <cell r="R2">
-            <v>0.11865206409435858</v>
-          </cell>
-          <cell r="S2">
-            <v>9.274023955380818E-4</v>
-          </cell>
-          <cell r="T2">
-            <v>7.8569991771052395E-5</v>
-          </cell>
-          <cell r="U2">
-            <v>5.8663481759166133E-5</v>
-          </cell>
-          <cell r="V2">
-            <v>0</v>
-          </cell>
-          <cell r="W2">
-            <v>0</v>
-          </cell>
-          <cell r="X2">
-            <v>0</v>
-          </cell>
-          <cell r="Y2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>3.4612704918032786E-5</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>9.9320532786885234E-3</v>
-          </cell>
-          <cell r="J3">
-            <v>0.19398216393442622</v>
-          </cell>
-          <cell r="K3">
-            <v>0.46145520491803282</v>
-          </cell>
-          <cell r="L3">
-            <v>0.61135364098360656</v>
-          </cell>
-          <cell r="M3">
-            <v>0.76751488524590161</v>
-          </cell>
-          <cell r="N3">
-            <v>0.91148434426229497</v>
-          </cell>
-          <cell r="O3">
-            <v>0.7606537090163934</v>
-          </cell>
-          <cell r="P3">
-            <v>0.52453274999999999</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.26193729180327868</v>
-          </cell>
-          <cell r="R3">
-            <v>5.5153573770491793E-2</v>
-          </cell>
-          <cell r="S3">
-            <v>3.3324590163934416E-4</v>
-          </cell>
-          <cell r="T3">
-            <v>1.47E-4</v>
-          </cell>
-          <cell r="U3">
-            <v>0</v>
-          </cell>
-          <cell r="V3">
-            <v>0</v>
-          </cell>
-          <cell r="W3">
-            <v>0</v>
-          </cell>
-          <cell r="X3">
-            <v>0</v>
-          </cell>
-          <cell r="Y3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>1.024310301189572E-2</v>
-          </cell>
-          <cell r="J4">
-            <v>0.22186521924829156</v>
-          </cell>
-          <cell r="K4">
-            <v>0.52074370412553772</v>
-          </cell>
-          <cell r="L4">
-            <v>0.769133504176158</v>
-          </cell>
-          <cell r="M4">
-            <v>0.80424794514047049</v>
-          </cell>
-          <cell r="N4">
-            <v>0.71036845102505675</v>
-          </cell>
-          <cell r="O4">
-            <v>0.57007472475322696</v>
-          </cell>
-          <cell r="P4">
-            <v>0.45698721336370535</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.1954214502657555</v>
-          </cell>
-          <cell r="R4">
-            <v>3.4501010820045551E-2</v>
-          </cell>
-          <cell r="S4">
-            <v>5.642875221462921E-5</v>
-          </cell>
-          <cell r="T4">
-            <v>0</v>
-          </cell>
-          <cell r="U4">
-            <v>0</v>
-          </cell>
-          <cell r="V4">
-            <v>0</v>
-          </cell>
-          <cell r="W4">
-            <v>0</v>
-          </cell>
-          <cell r="X4">
-            <v>0</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="B5">
             <v>0.39293548010186946</v>
@@ -15298,154 +14706,6 @@
           </cell>
           <cell r="Y5">
             <v>0.48238636964065829</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.5194456283821729</v>
-          </cell>
-          <cell r="C6">
-            <v>0.42632298282111497</v>
-          </cell>
-          <cell r="D6">
-            <v>0.38596350731315077</v>
-          </cell>
-          <cell r="E6">
-            <v>0.33847498315295077</v>
-          </cell>
-          <cell r="F6">
-            <v>0.30342131502705738</v>
-          </cell>
-          <cell r="G6">
-            <v>0.25917353481723504</v>
-          </cell>
-          <cell r="H6">
-            <v>0.24286974576271184</v>
-          </cell>
-          <cell r="I6">
-            <v>0.22591128445987338</v>
-          </cell>
-          <cell r="J6">
-            <v>0.2122133837043087</v>
-          </cell>
-          <cell r="K6">
-            <v>0.23690879620175623</v>
-          </cell>
-          <cell r="L6">
-            <v>0.22152716325045943</v>
-          </cell>
-          <cell r="M6">
-            <v>0.25600367444353683</v>
-          </cell>
-          <cell r="N6">
-            <v>0.28172662944149479</v>
-          </cell>
-          <cell r="O6">
-            <v>0.27079758640494178</v>
-          </cell>
-          <cell r="P6">
-            <v>0.30911265889830514</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.2724171502960997</v>
-          </cell>
-          <cell r="R6">
-            <v>0.25719418725750454</v>
-          </cell>
-          <cell r="S6">
-            <v>0.2647724180620788</v>
-          </cell>
-          <cell r="T6">
-            <v>0.25407154463191745</v>
-          </cell>
-          <cell r="U6">
-            <v>0.26657952445374722</v>
-          </cell>
-          <cell r="V6">
-            <v>0.24981067924239331</v>
-          </cell>
-          <cell r="W6">
-            <v>0.21216569736573412</v>
-          </cell>
-          <cell r="X6">
-            <v>0.23830690218501122</v>
-          </cell>
-          <cell r="Y6">
-            <v>0.22802310598325504</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.44868356148058447</v>
-          </cell>
-          <cell r="C7">
-            <v>0.41701362628514005</v>
-          </cell>
-          <cell r="D7">
-            <v>0.50289621080161817</v>
-          </cell>
-          <cell r="E7">
-            <v>0.51106079208431021</v>
-          </cell>
-          <cell r="F7">
-            <v>0.45535812569249395</v>
-          </cell>
-          <cell r="G7">
-            <v>0.40176154139503717</v>
-          </cell>
-          <cell r="H7">
-            <v>0.29288381303305927</v>
-          </cell>
-          <cell r="I7">
-            <v>0.25081821227034967</v>
-          </cell>
-          <cell r="J7">
-            <v>0.25926748589244758</v>
-          </cell>
-          <cell r="K7">
-            <v>0.24356818083434251</v>
-          </cell>
-          <cell r="L7">
-            <v>0.2663717075935994</v>
-          </cell>
-          <cell r="M7">
-            <v>0.2766745535829318</v>
-          </cell>
-          <cell r="N7">
-            <v>0.22745321729495735</v>
-          </cell>
-          <cell r="O7">
-            <v>0.24079498299363547</v>
-          </cell>
-          <cell r="P7">
-            <v>0.30878704681903679</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.40227078963642449</v>
-          </cell>
-          <cell r="R7">
-            <v>0.39382823571851888</v>
-          </cell>
-          <cell r="S7">
-            <v>0.42385277590249681</v>
-          </cell>
-          <cell r="T7">
-            <v>0.41199796954314727</v>
-          </cell>
-          <cell r="U7">
-            <v>0.46567438448555742</v>
-          </cell>
-          <cell r="V7">
-            <v>0.47153646061480581</v>
-          </cell>
-          <cell r="W7">
-            <v>0.45546692880517403</v>
-          </cell>
-          <cell r="X7">
-            <v>0.41890166114818728</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.40753095712334769</v>
           </cell>
         </row>
       </sheetData>
@@ -27648,8 +26908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A64CB9-8E0B-4A08-8654-5C7D038AF1D1}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28814,99 +28074,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <f>'[1]Profiles, RES, Summer'!B5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>'[1]Profiles, RES, Summer'!C5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>'[1]Profiles, RES, Summer'!D5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>'[1]Profiles, RES, Summer'!E5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>'[1]Profiles, RES, Summer'!F5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f>'[1]Profiles, RES, Summer'!G5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f>'[1]Profiles, RES, Summer'!H5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>'[1]Profiles, RES, Summer'!I5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f>'[1]Profiles, RES, Summer'!J5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f>'[1]Profiles, RES, Summer'!K5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <f>'[1]Profiles, RES, Summer'!L5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <f>'[1]Profiles, RES, Summer'!M5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f>'[1]Profiles, RES, Summer'!N5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f>'[1]Profiles, RES, Summer'!O5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <f>'[1]Profiles, RES, Summer'!P5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <f>'[1]Profiles, RES, Summer'!Q5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f>'[1]Profiles, RES, Summer'!R5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f>'[1]Profiles, RES, Summer'!S5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f>'[1]Profiles, RES, Summer'!T5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f>'[1]Profiles, RES, Summer'!U5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f>'[1]Profiles, RES, Summer'!V5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f>'[1]Profiles, RES, Summer'!W5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <f>'[1]Profiles, RES, Summer'!X5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <f>'[1]Profiles, RES, Summer'!Y5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -28915,99 +28175,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <f>'[1]Profiles, RES, Summer'!B6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>'[1]Profiles, RES, Summer'!C6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>'[1]Profiles, RES, Summer'!D6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>'[1]Profiles, RES, Summer'!E6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>'[1]Profiles, RES, Summer'!F6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>'[1]Profiles, RES, Summer'!G6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f>'[1]Profiles, RES, Summer'!H6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>'[1]Profiles, RES, Summer'!I6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>'[1]Profiles, RES, Summer'!J6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f>'[1]Profiles, RES, Summer'!K6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f>'[1]Profiles, RES, Summer'!L6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f>'[1]Profiles, RES, Summer'!M6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>'[1]Profiles, RES, Summer'!N6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f>'[1]Profiles, RES, Summer'!O6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <f>'[1]Profiles, RES, Summer'!P6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f>'[1]Profiles, RES, Summer'!Q6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f>'[1]Profiles, RES, Summer'!R6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f>'[1]Profiles, RES, Summer'!S6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>'[1]Profiles, RES, Summer'!T6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>'[1]Profiles, RES, Summer'!U6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>'[1]Profiles, RES, Summer'!V6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f>'[1]Profiles, RES, Summer'!W6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f>'[1]Profiles, RES, Summer'!X6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>'[1]Profiles, RES, Summer'!Y6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29016,99 +28276,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <f>'[1]Profiles, RES, Summer'!B7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f>'[1]Profiles, RES, Summer'!C7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>'[1]Profiles, RES, Summer'!D7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <f>'[1]Profiles, RES, Summer'!E7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <f>'[1]Profiles, RES, Summer'!F7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <f>'[1]Profiles, RES, Summer'!G7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <f>'[1]Profiles, RES, Summer'!H7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f>'[1]Profiles, RES, Summer'!I7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f>'[1]Profiles, RES, Summer'!J7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K18" s="7">
-        <f>'[1]Profiles, RES, Summer'!K7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <f>'[1]Profiles, RES, Summer'!L7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M18" s="7">
-        <f>'[1]Profiles, RES, Summer'!M7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f>'[1]Profiles, RES, Summer'!N7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f>'[1]Profiles, RES, Summer'!O7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <f>'[1]Profiles, RES, Summer'!P7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <f>'[1]Profiles, RES, Summer'!Q7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R18" s="7">
-        <f>'[1]Profiles, RES, Summer'!R7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S18" s="7">
-        <f>'[1]Profiles, RES, Summer'!S7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T18" s="7">
-        <f>'[1]Profiles, RES, Summer'!T7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f>'[1]Profiles, RES, Summer'!U7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <f>'[1]Profiles, RES, Summer'!V7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W18" s="7">
-        <f>'[1]Profiles, RES, Summer'!W7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <f>'[1]Profiles, RES, Summer'!X7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <f>'[1]Profiles, RES, Summer'!Y7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29117,76 +28377,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="7">
-        <f>'[1]Profiles, RES, Summer'!B8*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C19" s="7">
+        <f>'[1]Profiles, RES, Summer'!C$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D19" s="7">
+        <f>'[1]Profiles, RES, Summer'!D$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E19" s="7">
+        <f>'[1]Profiles, RES, Summer'!E$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F19" s="7">
+        <f>'[1]Profiles, RES, Summer'!F$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G19" s="7">
+        <f>'[1]Profiles, RES, Summer'!G$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H19" s="7">
+        <f>'[1]Profiles, RES, Summer'!H$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I19" s="7">
+        <f>'[1]Profiles, RES, Summer'!I$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J19" s="7">
+        <f>'[1]Profiles, RES, Summer'!J$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K19" s="7">
+        <f>'[1]Profiles, RES, Summer'!K$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L19" s="7">
+        <f>'[1]Profiles, RES, Summer'!L$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M19" s="7">
+        <f>'[1]Profiles, RES, Summer'!M$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N19" s="7">
+        <f>'[1]Profiles, RES, Summer'!N$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>'[1]Profiles, RES, Summer'!O$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P19" s="7">
+        <f>'[1]Profiles, RES, Summer'!P$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="7">
+        <f>'[1]Profiles, RES, Summer'!Q$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R19" s="7">
+        <f>'[1]Profiles, RES, Summer'!R$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S19" s="7">
+        <f>'[1]Profiles, RES, Summer'!S$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T19" s="7">
+        <f>'[1]Profiles, RES, Summer'!T$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U19" s="7">
+        <f>'[1]Profiles, RES, Summer'!U$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V19" s="7">
+        <f>'[1]Profiles, RES, Summer'!V$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W19" s="7">
+        <f>'[1]Profiles, RES, Summer'!W$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X19" s="7">
+        <f>'[1]Profiles, RES, Summer'!X$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="7">
+        <f>'[1]Profiles, RES, Summer'!Y$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29195,76 +28478,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="7">
-        <f>'[1]Profiles, RES, Summer'!B9*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C20" s="7">
+        <f>'[1]Profiles, RES, Summer'!C$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D20" s="7">
+        <f>'[1]Profiles, RES, Summer'!D$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E20" s="7">
+        <f>'[1]Profiles, RES, Summer'!E$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F20" s="7">
+        <f>'[1]Profiles, RES, Summer'!F$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20" s="7">
+        <f>'[1]Profiles, RES, Summer'!G$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H20" s="7">
+        <f>'[1]Profiles, RES, Summer'!H$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I20" s="7">
+        <f>'[1]Profiles, RES, Summer'!I$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J20" s="7">
+        <f>'[1]Profiles, RES, Summer'!J$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K20" s="7">
+        <f>'[1]Profiles, RES, Summer'!K$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L20" s="7">
+        <f>'[1]Profiles, RES, Summer'!L$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M20" s="7">
+        <f>'[1]Profiles, RES, Summer'!M$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N20" s="7">
+        <f>'[1]Profiles, RES, Summer'!N$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O20" s="7">
+        <f>'[1]Profiles, RES, Summer'!O$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P20" s="7">
+        <f>'[1]Profiles, RES, Summer'!P$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="7">
+        <f>'[1]Profiles, RES, Summer'!Q$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R20" s="7">
+        <f>'[1]Profiles, RES, Summer'!R$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S20" s="7">
+        <f>'[1]Profiles, RES, Summer'!S$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T20" s="7">
+        <f>'[1]Profiles, RES, Summer'!T$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U20" s="7">
+        <f>'[1]Profiles, RES, Summer'!U$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V20" s="7">
+        <f>'[1]Profiles, RES, Summer'!V$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W20" s="7">
+        <f>'[1]Profiles, RES, Summer'!W$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X20" s="7">
+        <f>'[1]Profiles, RES, Summer'!X$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="7">
+        <f>'[1]Profiles, RES, Summer'!Y$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29273,99 +28579,99 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <f>'[1]Profiles, RES, Summer'!B1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Profiles, RES, Summer'!C1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>'[1]Profiles, RES, Summer'!D1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f>'[1]Profiles, RES, Summer'!E1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>'[1]Profiles, RES, Summer'!F1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>'[1]Profiles, RES, Summer'!G1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'[1]Profiles, RES, Summer'!H1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>'[1]Profiles, RES, Summer'!I1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>'[1]Profiles, RES, Summer'!J1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>'[1]Profiles, RES, Summer'!K1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>'[1]Profiles, RES, Summer'!L1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>'[1]Profiles, RES, Summer'!M1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>'[1]Profiles, RES, Summer'!N1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f>'[1]Profiles, RES, Summer'!O1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>'[1]Profiles, RES, Summer'!P1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <f>'[1]Profiles, RES, Summer'!R1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <f>'[1]Profiles, RES, Summer'!S1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <f>'[1]Profiles, RES, Summer'!T1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U21" s="4">
-        <f>'[1]Profiles, RES, Summer'!U1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V21" s="4">
-        <f>'[1]Profiles, RES, Summer'!V1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f>'[1]Profiles, RES, Summer'!W1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f>'[1]Profiles, RES, Summer'!X1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29374,99 +28680,99 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <f>'[1]Profiles, RES, Summer'!B2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Profiles, RES, Summer'!C2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>'[1]Profiles, RES, Summer'!D2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f>'[1]Profiles, RES, Summer'!E2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>'[1]Profiles, RES, Summer'!F2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>'[1]Profiles, RES, Summer'!G2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'[1]Profiles, RES, Summer'!H2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>'[1]Profiles, RES, Summer'!I2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>'[1]Profiles, RES, Summer'!J2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>'[1]Profiles, RES, Summer'!K2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f>'[1]Profiles, RES, Summer'!L2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f>'[1]Profiles, RES, Summer'!M2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f>'[1]Profiles, RES, Summer'!N2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f>'[1]Profiles, RES, Summer'!O2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>'[1]Profiles, RES, Summer'!P2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f>'[1]Profiles, RES, Summer'!R2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f>'[1]Profiles, RES, Summer'!S2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f>'[1]Profiles, RES, Summer'!T2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U22" s="4">
-        <f>'[1]Profiles, RES, Summer'!U2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V22" s="4">
-        <f>'[1]Profiles, RES, Summer'!V2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f>'[1]Profiles, RES, Summer'!W2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f>'[1]Profiles, RES, Summer'!X2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29475,99 +28781,99 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <f>'[1]Profiles, RES, Summer'!B3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Profiles, RES, Summer'!C3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f>'[1]Profiles, RES, Summer'!D3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <f>'[1]Profiles, RES, Summer'!E3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>'[1]Profiles, RES, Summer'!F3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>'[1]Profiles, RES, Summer'!G3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'[1]Profiles, RES, Summer'!H3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f>'[1]Profiles, RES, Summer'!I3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>'[1]Profiles, RES, Summer'!J3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f>'[1]Profiles, RES, Summer'!K3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f>'[1]Profiles, RES, Summer'!L3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>'[1]Profiles, RES, Summer'!M3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f>'[1]Profiles, RES, Summer'!N3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f>'[1]Profiles, RES, Summer'!O3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f>'[1]Profiles, RES, Summer'!P3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <f>'[1]Profiles, RES, Summer'!R3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="4">
-        <f>'[1]Profiles, RES, Summer'!S3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="4">
-        <f>'[1]Profiles, RES, Summer'!T3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="4">
-        <f>'[1]Profiles, RES, Summer'!U3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
-        <f>'[1]Profiles, RES, Summer'!V3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <f>'[1]Profiles, RES, Summer'!W3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="4">
-        <f>'[1]Profiles, RES, Summer'!X3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29576,99 +28882,99 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <f>'[1]Profiles, RES, Summer'!B4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Profiles, RES, Summer'!C4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f>'[1]Profiles, RES, Summer'!D4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f>'[1]Profiles, RES, Summer'!E4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>'[1]Profiles, RES, Summer'!F4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>'[1]Profiles, RES, Summer'!G4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'[1]Profiles, RES, Summer'!H4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f>'[1]Profiles, RES, Summer'!I4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>'[1]Profiles, RES, Summer'!J4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f>'[1]Profiles, RES, Summer'!K4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>'[1]Profiles, RES, Summer'!L4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f>'[1]Profiles, RES, Summer'!M4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <f>'[1]Profiles, RES, Summer'!N4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f>'[1]Profiles, RES, Summer'!O4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f>'[1]Profiles, RES, Summer'!P4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <f>'[1]Profiles, RES, Summer'!R4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <f>'[1]Profiles, RES, Summer'!S4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T24" s="4">
-        <f>'[1]Profiles, RES, Summer'!T4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U24" s="4">
-        <f>'[1]Profiles, RES, Summer'!U4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V24" s="4">
-        <f>'[1]Profiles, RES, Summer'!V4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f>'[1]Profiles, RES, Summer'!W4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f>'[1]Profiles, RES, Summer'!X4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -29677,99 +28983,99 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <f>'[1]Profiles, RES, Summer'!B5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Profiles, RES, Summer'!C5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <f>'[1]Profiles, RES, Summer'!D5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f>'[1]Profiles, RES, Summer'!E5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>'[1]Profiles, RES, Summer'!F5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>'[1]Profiles, RES, Summer'!G5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'[1]Profiles, RES, Summer'!H5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f>'[1]Profiles, RES, Summer'!I5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>'[1]Profiles, RES, Summer'!J5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>'[1]Profiles, RES, Summer'!K5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f>'[1]Profiles, RES, Summer'!L5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f>'[1]Profiles, RES, Summer'!M5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f>'[1]Profiles, RES, Summer'!N5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f>'[1]Profiles, RES, Summer'!O5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>'[1]Profiles, RES, Summer'!P5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R25" s="4">
-        <f>'[1]Profiles, RES, Summer'!R5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S25" s="4">
-        <f>'[1]Profiles, RES, Summer'!S5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T25" s="4">
-        <f>'[1]Profiles, RES, Summer'!T5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U25" s="4">
-        <f>'[1]Profiles, RES, Summer'!U5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V25" s="4">
-        <f>'[1]Profiles, RES, Summer'!V5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W25" s="4">
-        <f>'[1]Profiles, RES, Summer'!W5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <f>'[1]Profiles, RES, Summer'!X5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33662,7 +32968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF7E2F-C521-4E43-83A3-255291D61BD8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -43789,7 +43095,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B16" sqref="B16:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44954,99 +44260,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <f>'[1]Profiles, RES, Winter'!B5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>'[1]Profiles, RES, Winter'!C5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>'[1]Profiles, RES, Winter'!D5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>'[1]Profiles, RES, Winter'!E5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>'[1]Profiles, RES, Winter'!F5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f>'[1]Profiles, RES, Winter'!G5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f>'[1]Profiles, RES, Winter'!H5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>'[1]Profiles, RES, Winter'!I5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f>'[1]Profiles, RES, Winter'!J5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f>'[1]Profiles, RES, Winter'!K5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <f>'[1]Profiles, RES, Winter'!L5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <f>'[1]Profiles, RES, Winter'!M5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f>'[1]Profiles, RES, Winter'!N5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f>'[1]Profiles, RES, Winter'!O5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <f>'[1]Profiles, RES, Winter'!P5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <f>'[1]Profiles, RES, Winter'!Q5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f>'[1]Profiles, RES, Winter'!R5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f>'[1]Profiles, RES, Winter'!S5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f>'[1]Profiles, RES, Winter'!T5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f>'[1]Profiles, RES, Winter'!U5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f>'[1]Profiles, RES, Winter'!V5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f>'[1]Profiles, RES, Winter'!W5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <f>'[1]Profiles, RES, Winter'!X5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <f>'[1]Profiles, RES, Winter'!Y5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$5*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45055,99 +44361,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <f>'[1]Profiles, RES, Winter'!B6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>'[1]Profiles, RES, Winter'!C6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>'[1]Profiles, RES, Winter'!D6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>'[1]Profiles, RES, Winter'!E6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>'[1]Profiles, RES, Winter'!F6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>'[1]Profiles, RES, Winter'!G6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f>'[1]Profiles, RES, Winter'!H6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>'[1]Profiles, RES, Winter'!I6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>'[1]Profiles, RES, Winter'!J6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f>'[1]Profiles, RES, Winter'!K6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f>'[1]Profiles, RES, Winter'!L6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f>'[1]Profiles, RES, Winter'!M6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>'[1]Profiles, RES, Winter'!N6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f>'[1]Profiles, RES, Winter'!O6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <f>'[1]Profiles, RES, Winter'!P6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f>'[1]Profiles, RES, Winter'!Q6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f>'[1]Profiles, RES, Winter'!R6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f>'[1]Profiles, RES, Winter'!S6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>'[1]Profiles, RES, Winter'!T6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>'[1]Profiles, RES, Winter'!U6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>'[1]Profiles, RES, Winter'!V6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f>'[1]Profiles, RES, Winter'!W6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f>'[1]Profiles, RES, Winter'!X6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>'[1]Profiles, RES, Winter'!Y6*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$5*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45156,99 +44462,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <f>'[1]Profiles, RES, Winter'!B7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f>'[1]Profiles, RES, Winter'!C7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>'[1]Profiles, RES, Winter'!D7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <f>'[1]Profiles, RES, Winter'!E7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <f>'[1]Profiles, RES, Winter'!F7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <f>'[1]Profiles, RES, Winter'!G7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <f>'[1]Profiles, RES, Winter'!H7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f>'[1]Profiles, RES, Winter'!I7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f>'[1]Profiles, RES, Winter'!J7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K18" s="7">
-        <f>'[1]Profiles, RES, Winter'!K7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <f>'[1]Profiles, RES, Winter'!L7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M18" s="7">
-        <f>'[1]Profiles, RES, Winter'!M7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f>'[1]Profiles, RES, Winter'!N7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f>'[1]Profiles, RES, Winter'!O7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <f>'[1]Profiles, RES, Winter'!P7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <f>'[1]Profiles, RES, Winter'!Q7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R18" s="7">
-        <f>'[1]Profiles, RES, Winter'!R7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S18" s="7">
-        <f>'[1]Profiles, RES, Winter'!S7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T18" s="7">
-        <f>'[1]Profiles, RES, Winter'!T7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f>'[1]Profiles, RES, Winter'!U7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <f>'[1]Profiles, RES, Winter'!V7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W18" s="7">
-        <f>'[1]Profiles, RES, Winter'!W7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <f>'[1]Profiles, RES, Winter'!X7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <f>'[1]Profiles, RES, Winter'!Y7*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$5*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45257,76 +44563,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="7">
-        <f>'[1]Profiles, RES, Winter'!B8*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C19" s="7">
+        <f>'[1]Profiles, RES, Winter'!C$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D19" s="7">
+        <f>'[1]Profiles, RES, Winter'!D$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E19" s="7">
+        <f>'[1]Profiles, RES, Winter'!E$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F19" s="7">
+        <f>'[1]Profiles, RES, Winter'!F$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G19" s="7">
+        <f>'[1]Profiles, RES, Winter'!G$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H19" s="7">
+        <f>'[1]Profiles, RES, Winter'!H$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I19" s="7">
+        <f>'[1]Profiles, RES, Winter'!I$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J19" s="7">
+        <f>'[1]Profiles, RES, Winter'!J$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K19" s="7">
+        <f>'[1]Profiles, RES, Winter'!K$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L19" s="7">
+        <f>'[1]Profiles, RES, Winter'!L$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M19" s="7">
+        <f>'[1]Profiles, RES, Winter'!M$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N19" s="7">
+        <f>'[1]Profiles, RES, Winter'!N$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>'[1]Profiles, RES, Winter'!O$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P19" s="7">
+        <f>'[1]Profiles, RES, Winter'!P$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="7">
+        <f>'[1]Profiles, RES, Winter'!Q$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R19" s="7">
+        <f>'[1]Profiles, RES, Winter'!R$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S19" s="7">
+        <f>'[1]Profiles, RES, Winter'!S$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T19" s="7">
+        <f>'[1]Profiles, RES, Winter'!T$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U19" s="7">
+        <f>'[1]Profiles, RES, Winter'!U$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V19" s="7">
+        <f>'[1]Profiles, RES, Winter'!V$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W19" s="7">
+        <f>'[1]Profiles, RES, Winter'!W$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X19" s="7">
+        <f>'[1]Profiles, RES, Winter'!X$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="7">
+        <f>'[1]Profiles, RES, Winter'!Y$5*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45335,76 +44664,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="7">
-        <f>'[1]Profiles, RES, Winter'!B9*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C20" s="7">
+        <f>'[1]Profiles, RES, Winter'!C$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D20" s="7">
+        <f>'[1]Profiles, RES, Winter'!D$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E20" s="7">
+        <f>'[1]Profiles, RES, Winter'!E$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F20" s="7">
+        <f>'[1]Profiles, RES, Winter'!F$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20" s="7">
+        <f>'[1]Profiles, RES, Winter'!G$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H20" s="7">
+        <f>'[1]Profiles, RES, Winter'!H$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I20" s="7">
+        <f>'[1]Profiles, RES, Winter'!I$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J20" s="7">
+        <f>'[1]Profiles, RES, Winter'!J$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K20" s="7">
+        <f>'[1]Profiles, RES, Winter'!K$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L20" s="7">
+        <f>'[1]Profiles, RES, Winter'!L$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M20" s="7">
+        <f>'[1]Profiles, RES, Winter'!M$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N20" s="7">
+        <f>'[1]Profiles, RES, Winter'!N$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O20" s="7">
+        <f>'[1]Profiles, RES, Winter'!O$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P20" s="7">
+        <f>'[1]Profiles, RES, Winter'!P$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="7">
+        <f>'[1]Profiles, RES, Winter'!Q$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R20" s="7">
+        <f>'[1]Profiles, RES, Winter'!R$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S20" s="7">
+        <f>'[1]Profiles, RES, Winter'!S$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T20" s="7">
+        <f>'[1]Profiles, RES, Winter'!T$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U20" s="7">
+        <f>'[1]Profiles, RES, Winter'!U$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V20" s="7">
+        <f>'[1]Profiles, RES, Winter'!V$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W20" s="7">
+        <f>'[1]Profiles, RES, Winter'!W$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X20" s="7">
+        <f>'[1]Profiles, RES, Winter'!X$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="7">
+        <f>'[1]Profiles, RES, Winter'!Y$5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45413,99 +44765,99 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <f>'[1]Profiles, RES, Winter'!B1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Profiles, RES, Winter'!C1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>'[1]Profiles, RES, Winter'!D1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f>'[1]Profiles, RES, Winter'!E1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>'[1]Profiles, RES, Winter'!F1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>'[1]Profiles, RES, Winter'!G1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'[1]Profiles, RES, Winter'!H1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>'[1]Profiles, RES, Winter'!I1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>'[1]Profiles, RES, Winter'!J1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>'[1]Profiles, RES, Winter'!K1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>'[1]Profiles, RES, Winter'!L1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>'[1]Profiles, RES, Winter'!M1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>'[1]Profiles, RES, Winter'!N1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f>'[1]Profiles, RES, Winter'!O1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>'[1]Profiles, RES, Winter'!P1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <f>'[1]Profiles, RES, Winter'!R1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <f>'[1]Profiles, RES, Winter'!S1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <f>'[1]Profiles, RES, Winter'!T1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U21" s="4">
-        <f>'[1]Profiles, RES, Winter'!U1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V21" s="4">
-        <f>'[1]Profiles, RES, Winter'!V1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f>'[1]Profiles, RES, Winter'!W1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f>'[1]Profiles, RES, Winter'!X1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45514,99 +44866,99 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <f>'[1]Profiles, RES, Winter'!B2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Profiles, RES, Winter'!C2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>'[1]Profiles, RES, Winter'!D2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f>'[1]Profiles, RES, Winter'!E2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>'[1]Profiles, RES, Winter'!F2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>'[1]Profiles, RES, Winter'!G2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'[1]Profiles, RES, Winter'!H2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>'[1]Profiles, RES, Winter'!I2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>'[1]Profiles, RES, Winter'!J2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>'[1]Profiles, RES, Winter'!K2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f>'[1]Profiles, RES, Winter'!L2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f>'[1]Profiles, RES, Winter'!M2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f>'[1]Profiles, RES, Winter'!N2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f>'[1]Profiles, RES, Winter'!O2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>'[1]Profiles, RES, Winter'!P2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f>'[1]Profiles, RES, Winter'!R2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f>'[1]Profiles, RES, Winter'!S2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f>'[1]Profiles, RES, Winter'!T2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U22" s="4">
-        <f>'[1]Profiles, RES, Winter'!U2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V22" s="4">
-        <f>'[1]Profiles, RES, Winter'!V2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f>'[1]Profiles, RES, Winter'!W2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f>'[1]Profiles, RES, Winter'!X2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y2*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45615,99 +44967,99 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <f>'[1]Profiles, RES, Winter'!B3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Profiles, RES, Winter'!C3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f>'[1]Profiles, RES, Winter'!D3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <f>'[1]Profiles, RES, Winter'!E3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>'[1]Profiles, RES, Winter'!F3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>'[1]Profiles, RES, Winter'!G3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'[1]Profiles, RES, Winter'!H3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f>'[1]Profiles, RES, Winter'!I3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>'[1]Profiles, RES, Winter'!J3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f>'[1]Profiles, RES, Winter'!K3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f>'[1]Profiles, RES, Winter'!L3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>'[1]Profiles, RES, Winter'!M3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f>'[1]Profiles, RES, Winter'!N3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f>'[1]Profiles, RES, Winter'!O3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f>'[1]Profiles, RES, Winter'!P3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <f>'[1]Profiles, RES, Winter'!R3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="4">
-        <f>'[1]Profiles, RES, Winter'!S3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="4">
-        <f>'[1]Profiles, RES, Winter'!T3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="4">
-        <f>'[1]Profiles, RES, Winter'!U3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
-        <f>'[1]Profiles, RES, Winter'!V3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <f>'[1]Profiles, RES, Winter'!W3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="4">
-        <f>'[1]Profiles, RES, Winter'!X3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y3*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45716,99 +45068,99 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <f>'[1]Profiles, RES, Winter'!B4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Profiles, RES, Winter'!C4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f>'[1]Profiles, RES, Winter'!D4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f>'[1]Profiles, RES, Winter'!E4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>'[1]Profiles, RES, Winter'!F4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>'[1]Profiles, RES, Winter'!G4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'[1]Profiles, RES, Winter'!H4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f>'[1]Profiles, RES, Winter'!I4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>'[1]Profiles, RES, Winter'!J4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f>'[1]Profiles, RES, Winter'!K4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>'[1]Profiles, RES, Winter'!L4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f>'[1]Profiles, RES, Winter'!M4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <f>'[1]Profiles, RES, Winter'!N4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f>'[1]Profiles, RES, Winter'!O4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f>'[1]Profiles, RES, Winter'!P4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <f>'[1]Profiles, RES, Winter'!R4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <f>'[1]Profiles, RES, Winter'!S4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T24" s="4">
-        <f>'[1]Profiles, RES, Winter'!T4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U24" s="4">
-        <f>'[1]Profiles, RES, Winter'!U4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V24" s="4">
-        <f>'[1]Profiles, RES, Winter'!V4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f>'[1]Profiles, RES, Winter'!W4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f>'[1]Profiles, RES, Winter'!X4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y4*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -45817,99 +45169,99 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <f>'[1]Profiles, RES, Winter'!B5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Profiles, RES, Winter'!C5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <f>'[1]Profiles, RES, Winter'!D5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f>'[1]Profiles, RES, Winter'!E5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>'[1]Profiles, RES, Winter'!F5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>'[1]Profiles, RES, Winter'!G5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'[1]Profiles, RES, Winter'!H5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f>'[1]Profiles, RES, Winter'!I5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>'[1]Profiles, RES, Winter'!J5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>'[1]Profiles, RES, Winter'!K5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f>'[1]Profiles, RES, Winter'!L5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f>'[1]Profiles, RES, Winter'!M5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f>'[1]Profiles, RES, Winter'!N5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f>'[1]Profiles, RES, Winter'!O5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>'[1]Profiles, RES, Winter'!P5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R25" s="4">
-        <f>'[1]Profiles, RES, Winter'!R5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S25" s="4">
-        <f>'[1]Profiles, RES, Winter'!S5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T25" s="4">
-        <f>'[1]Profiles, RES, Winter'!T5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U25" s="4">
-        <f>'[1]Profiles, RES, Winter'!U5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V25" s="4">
-        <f>'[1]Profiles, RES, Winter'!V5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W25" s="4">
-        <f>'[1]Profiles, RES, Winter'!W5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <f>'[1]Profiles, RES, Winter'!X5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y5*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D306F51D-9C16-4437-8F93-5AB7E8B70963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC6720E-B9BA-4F39-8C16-E59480318D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>numScenarios</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Pinst, [MW]</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>ESID</t>
@@ -17008,7 +17005,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -19524,7 +19521,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -22040,7 +22037,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -24478,7 +24475,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -26909,7 +26906,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:Y25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32969,7 +32966,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32989,8 +32986,8 @@
       <c r="A2" s="6">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -33000,8 +32997,8 @@
       <c r="A3" s="6">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -33011,30 +33008,30 @@
       <c r="A4" s="6">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -33044,8 +33041,8 @@
       <c r="A7" s="3">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -33055,8 +33052,8 @@
       <c r="A8" s="3">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -33066,8 +33063,8 @@
       <c r="A9" s="3">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -33077,8 +33074,8 @@
       <c r="A10" s="3">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -33088,8 +33085,8 @@
       <c r="A11" s="3">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11">
+        <v>103</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -33103,17 +33100,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2086E97A-8994-47C6-B6B3-92673DE03586}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -33126,55 +33123,110 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33194,7 +33246,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -35710,7 +35762,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -38226,7 +38278,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -40664,7 +40716,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -43095,7 +43147,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:Y25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC18D18-7F81-4B27-B1AE-376E49D7F6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC39D1-F7F7-4026-A0A5-E5CC7F8D670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33738,8 +33738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F108A6CA-BBFD-4F40-B9B3-6071F697C889}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Y10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36254,8 +36254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB9A7B2-1582-4DB9-AFCC-E7FB2D384B8D}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC39D1-F7F7-4026-A0A5-E5CC7F8D670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9BDD6-F558-41D7-9E87-30EBD30CC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15354,7 +15354,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15672,76 +15672,76 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -15749,76 +15749,76 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -15826,76 +15826,76 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -16365,76 +16365,76 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -31525,8 +31525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D9792-F63F-4427-BB5B-847351ACEE5E}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31844,76 +31844,76 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -31921,76 +31921,76 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -31998,76 +31998,76 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -32537,76 +32537,76 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -33738,7 +33738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F108A6CA-BBFD-4F40-B9B3-6071F697C889}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/Location1/Location1_2024.xlsx
+++ b/data/HR1/Location1/Location1_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0153F-558D-4DCC-869A-055AA35B84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1FD44-81BD-4DBE-8A42-B13DD7A8D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33747,7 +33747,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
